--- a/TLIS_API/192.168.1.17/Users/hp/Desktop/export.xlsx
+++ b/TLIS_API/192.168.1.17/Users/hp/Desktop/export.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>SITECODE</t>
   </si>
@@ -78,10 +78,16 @@
     <t>URL Path</t>
   </si>
   <si>
-    <t>departments/tc/Lists/tofsi/109_.000</t>
-  </si>
-  <si>
     <t>departments</t>
+  </si>
+  <si>
+    <t>Radio Antenna Info\2346_.000</t>
+  </si>
+  <si>
+    <t>Radio Antenna Info\</t>
+  </si>
+  <si>
+    <t>Path</t>
   </si>
 </sst>
 </file>
@@ -891,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -905,7 +911,7 @@
     <col min="8" max="8" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -924,8 +930,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -933,7 +942,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -941,8 +950,11 @@
       <c r="F2" t="s">
         <v>6</v>
       </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -950,7 +962,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -959,7 +971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -976,7 +988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -993,7 +1005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1010,7 +1022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1018,7 +1030,7 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
